--- a/nr-add-info-mhd/ig/ValueSet-MeltingPotVS.xlsx
+++ b/nr-add-info-mhd/ig/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T11:46:59+00:00</t>
+    <t>2025-04-29T12:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-info-mhd/ig/ValueSet-MeltingPotVS.xlsx
+++ b/nr-add-info-mhd/ig/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:54:15+00:00</t>
+    <t>2025-04-29T13:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-info-mhd/ig/ValueSet-MeltingPotVS.xlsx
+++ b/nr-add-info-mhd/ig/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T13:34:33+00:00</t>
+    <t>2025-04-29T13:47:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
